--- a/quan.java/quan-config/excel/道具/道具.xlsx
+++ b/quan.java/quan-config/excel/道具/道具.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\quan-core\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145516E-A184-4A97-BF39-D5B246E08AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>注释</t>
   </si>
   <si>
     <t>道具1</t>
@@ -267,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1215,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1267,1611 +1263,1573 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>244</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>244</v>
-      </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/quan.java/quan-config/excel/道具/道具.xlsx
+++ b/quan.java/quan-config/excel/道具/道具.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quan\quan.java\quan-config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>44;223</t>
-  </si>
-  <si>
-    <t>342;45</t>
   </si>
   <si>
     <t>43*45</t>
@@ -258,6 +255,22 @@
   </si>
   <si>
     <t>道具51</t>
+  </si>
+  <si>
+    <t>554;465;655</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>122*2;322*22;455*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>122*2;322*22;455*33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>342；45</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1215,7 +1228,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1263,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1271,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1280,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1292,16 +1305,16 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1309,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1318,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1333,7 +1346,7 @@
         <v>244</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1353,13 +1366,13 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1367,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1385,16 +1398,16 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1402,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1420,16 +1433,16 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>233</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1437,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1455,16 +1468,16 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>233</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1472,13 +1485,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1490,16 +1503,16 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>233</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1507,13 +1520,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1525,16 +1538,16 @@
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>233</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1542,13 +1555,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1560,16 +1573,16 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>233</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1577,13 +1590,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1595,16 +1608,16 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>233</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1612,13 +1625,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1630,16 +1643,16 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>233</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1647,13 +1660,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1665,16 +1678,16 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="J13">
+        <v>233</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1682,13 +1695,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1700,16 +1713,16 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>233</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1717,13 +1730,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1735,16 +1748,16 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>233</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1752,13 +1765,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1770,16 +1783,16 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>233</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1787,13 +1800,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1805,16 +1818,16 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>233</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1822,13 +1835,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1840,16 +1853,16 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>233</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1857,13 +1870,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1875,16 +1888,16 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>233</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1892,13 +1905,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1910,16 +1923,16 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>233</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1927,13 +1940,13 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1945,16 +1958,16 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>233</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1962,13 +1975,13 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1980,16 +1993,16 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>233</v>
       </c>
       <c r="K22" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1997,13 +2010,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -2015,16 +2028,16 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>233</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2032,13 +2045,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -2050,16 +2063,16 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>233</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2067,13 +2080,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -2085,16 +2098,16 @@
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>233</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,13 +2115,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -2120,16 +2133,16 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>233</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2137,13 +2150,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -2155,16 +2168,16 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>233</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2172,13 +2185,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -2190,16 +2203,16 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>233</v>
       </c>
       <c r="K28" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2207,13 +2220,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2225,16 +2238,16 @@
         <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>233</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2242,13 +2255,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2260,16 +2273,16 @@
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>233</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2277,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -2295,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>233</v>
       </c>
       <c r="K31" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -2330,16 +2343,16 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>233</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2347,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -2365,16 +2378,16 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>233</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2382,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -2400,16 +2413,16 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>233</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2417,13 +2430,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2435,16 +2448,16 @@
         <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>233</v>
       </c>
       <c r="K35" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2452,13 +2465,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2470,16 +2483,16 @@
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>233</v>
       </c>
       <c r="K36" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -2505,16 +2518,16 @@
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>233</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2522,13 +2535,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2540,16 +2553,16 @@
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>233</v>
       </c>
       <c r="K38" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2557,13 +2570,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -2575,16 +2588,16 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>233</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2592,13 +2605,13 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -2610,16 +2623,16 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>233</v>
       </c>
       <c r="K40" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2627,13 +2640,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2645,16 +2658,16 @@
         <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>233</v>
       </c>
       <c r="K41" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,13 +2675,13 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2680,16 +2693,16 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>233</v>
       </c>
       <c r="K42" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2697,13 +2710,13 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2715,16 +2728,16 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>233</v>
       </c>
       <c r="K43" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2732,13 +2745,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2750,16 +2763,16 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>233</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2767,13 +2780,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2785,16 +2798,16 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>233</v>
       </c>
       <c r="K45" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2802,13 +2815,13 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2820,16 +2833,16 @@
         <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>233</v>
       </c>
       <c r="K46" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
